--- a/vis/project_sheet.xlsx
+++ b/vis/project_sheet.xlsx
@@ -302,7 +302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF07EA5"/>
+        <fgColor rgb="FFB3A8FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,31 +314,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FE6EE"/>
+        <fgColor rgb="FFA58AA3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7C3EA"/>
+        <fgColor rgb="FFD7B6AF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF91D4B2"/>
+        <fgColor rgb="FFBEA87E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF98B7FE"/>
+        <fgColor rgb="FFB0E784"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEF87B"/>
+        <fgColor rgb="FFA9F5CF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,85 +350,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFE7CEF"/>
+        <fgColor rgb="FFFBFECA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF79F593"/>
+        <fgColor rgb="FFFE98D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACB690"/>
+        <fgColor rgb="FF839BBB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDFCEA"/>
+        <fgColor rgb="FFEEDDB4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8A2C2"/>
+        <fgColor rgb="FFE082C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA47ABE"/>
+        <fgColor rgb="FF9C7BE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0A8D4"/>
+        <fgColor rgb="FFEB7B79"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAF3D9"/>
+        <fgColor rgb="FF7AC0D4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7B8C9D"/>
+        <fgColor rgb="FF7DFDAF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4D09D"/>
+        <fgColor rgb="FFCBDFEA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8782E3"/>
+        <fgColor rgb="FF8AF8FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3E9B4"/>
+        <fgColor rgb="FFEB88FE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB5FD7D"/>
+        <fgColor rgb="FF7A9B7C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCA8E7C"/>
+        <fgColor rgb="FF99CFAA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
